--- a/target/test-classes/testdata/EmployeeBatch16.xlsx
+++ b/target/test-classes/testdata/EmployeeBatch16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>firstName</t>
   </si>
@@ -46,7 +46,7 @@
     <t>haaka</t>
   </si>
   <si>
-    <t>C:\Users\16465\OneDrive\Desktop\SYNTAXimage.jpg</t>
+    <t>C:\Users\16465\OneDrive\Desktop\SYNTAXpicBatch16..jpeg</t>
   </si>
   <si>
     <t>nadia123111</t>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>saka</t>
+  </si>
+  <si>
+    <t>C:\Users\16465\OneDrive\Desktop\SYNTAXpicBatch16.j.jpeg</t>
   </si>
   <si>
     <t>very123222</t>
@@ -100,16 +103,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,46 +117,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,8 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +148,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -200,9 +197,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,24 +210,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,31 +248,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,151 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,26 +442,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,15 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -498,6 +477,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +522,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -539,7 +542,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,127 +561,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1010,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1015,7 +1018,7 @@
     <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="17.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="19.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="51.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
     <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="19.1428571428571" customWidth="1"/>
@@ -1078,10 +1081,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -1092,19 +1095,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
